--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.26166080606577</v>
+        <v>9.269799333333333</v>
       </c>
       <c r="N2">
-        <v>9.26166080606577</v>
+        <v>27.809398</v>
       </c>
       <c r="O2">
-        <v>0.1674072397996707</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="P2">
-        <v>0.1674072397996707</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="Q2">
-        <v>7.762346640324328</v>
+        <v>9.318403981171111</v>
       </c>
       <c r="R2">
-        <v>7.762346640324328</v>
+        <v>83.86563583053999</v>
       </c>
       <c r="S2">
-        <v>0.01078527970938532</v>
+        <v>0.01176534653134675</v>
       </c>
       <c r="T2">
-        <v>0.01078527970938532</v>
+        <v>0.01176534653134675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.6145251967764</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N3">
-        <v>37.6145251967764</v>
+        <v>113.146496</v>
       </c>
       <c r="O3">
-        <v>0.6798935926743749</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="P3">
-        <v>0.6798935926743749</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="Q3">
-        <v>31.52533756120356</v>
+        <v>37.91325359800888</v>
       </c>
       <c r="R3">
-        <v>31.52533756120356</v>
+        <v>341.2192823820799</v>
       </c>
       <c r="S3">
-        <v>0.04380242203614931</v>
+        <v>0.04786898782374356</v>
       </c>
       <c r="T3">
-        <v>0.04380242203614931</v>
+        <v>0.04786898782374355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>8.44794942373087</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N4">
-        <v>8.44794942373087</v>
+        <v>0.149489</v>
       </c>
       <c r="O4">
-        <v>0.1526991675259545</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="P4">
-        <v>0.1526991675259545</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="Q4">
-        <v>7.080362064650361</v>
+        <v>0.05009094021888889</v>
       </c>
       <c r="R4">
-        <v>7.080362064650361</v>
+        <v>0.45081846197</v>
       </c>
       <c r="S4">
-        <v>0.00983770615373916</v>
+        <v>6.324444303413163E-05</v>
       </c>
       <c r="T4">
-        <v>0.00983770615373916</v>
+        <v>6.324444303413162E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1160701072289</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>10.1160701072289</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.26166080606577</v>
+        <v>9.888937</v>
       </c>
       <c r="N5">
-        <v>9.26166080606577</v>
+        <v>29.666811</v>
       </c>
       <c r="O5">
-        <v>0.1674072397996707</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="P5">
-        <v>0.1674072397996707</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="Q5">
-        <v>93.69161002353545</v>
+        <v>9.940787993003333</v>
       </c>
       <c r="R5">
-        <v>93.69161002353545</v>
+        <v>89.46709193702999</v>
       </c>
       <c r="S5">
-        <v>0.1301784456876895</v>
+        <v>0.01255116388693382</v>
       </c>
       <c r="T5">
-        <v>0.1301784456876895</v>
+        <v>0.01255116388693382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.6145251967764</v>
+        <v>9.269799333333333</v>
       </c>
       <c r="N6">
-        <v>37.6145251967764</v>
+        <v>27.809398</v>
       </c>
       <c r="O6">
-        <v>0.6798935926743749</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="P6">
-        <v>0.6798935926743749</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="Q6">
-        <v>380.511173940718</v>
+        <v>95.10665181224044</v>
       </c>
       <c r="R6">
-        <v>380.511173940718</v>
+        <v>855.959866310164</v>
       </c>
       <c r="S6">
-        <v>0.5286957196909909</v>
+        <v>0.1200809407134674</v>
       </c>
       <c r="T6">
-        <v>0.5286957196909909</v>
+        <v>0.1200809407134673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.44794942373087</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N7">
-        <v>8.44794942373087</v>
+        <v>113.146496</v>
       </c>
       <c r="O7">
-        <v>0.1526991675259545</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="P7">
-        <v>0.1526991675259545</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="Q7">
-        <v>85.46004863278547</v>
+        <v>386.9549566965475</v>
       </c>
       <c r="R7">
-        <v>85.46004863278547</v>
+        <v>3482.594610268928</v>
       </c>
       <c r="S7">
-        <v>0.1187412223636219</v>
+        <v>0.4885664075904328</v>
       </c>
       <c r="T7">
-        <v>0.1187412223636219</v>
+        <v>0.4885664075904328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>9.26166080606577</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N8">
-        <v>9.26166080606577</v>
+        <v>0.149489</v>
       </c>
       <c r="O8">
-        <v>0.1674072397996707</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="P8">
-        <v>0.1674072397996707</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="Q8">
-        <v>3.314277698575081</v>
+        <v>0.5112443740335556</v>
       </c>
       <c r="R8">
-        <v>3.314277698575081</v>
+        <v>4.601199366302001</v>
       </c>
       <c r="S8">
-        <v>0.004604974973420744</v>
+        <v>0.0006454932877840621</v>
       </c>
       <c r="T8">
-        <v>0.004604974973420744</v>
+        <v>0.000645493287784062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.6145251967764</v>
+        <v>9.888937</v>
       </c>
       <c r="N9">
-        <v>37.6145251967764</v>
+        <v>29.666811</v>
       </c>
       <c r="O9">
-        <v>0.6798935926743749</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="P9">
-        <v>0.6798935926743749</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="Q9">
-        <v>13.46032689088756</v>
+        <v>101.4589047974553</v>
       </c>
       <c r="R9">
-        <v>13.46032689088756</v>
+        <v>913.130143177098</v>
       </c>
       <c r="S9">
-        <v>0.01870225554522745</v>
+        <v>0.1281012473858169</v>
       </c>
       <c r="T9">
-        <v>0.01870225554522745</v>
+        <v>0.1281012473858169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.44794942373087</v>
+        <v>9.269799333333333</v>
       </c>
       <c r="N10">
-        <v>8.44794942373087</v>
+        <v>27.809398</v>
       </c>
       <c r="O10">
-        <v>0.1526991675259545</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="P10">
-        <v>0.1526991675259545</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="Q10">
-        <v>3.023091749961741</v>
+        <v>3.558444219083333</v>
       </c>
       <c r="R10">
-        <v>3.023091749961741</v>
+        <v>32.02599797175001</v>
       </c>
       <c r="S10">
-        <v>0.004200390889669188</v>
+        <v>0.004492864811890389</v>
       </c>
       <c r="T10">
-        <v>0.004200390889669188</v>
+        <v>0.004492864811890389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.26166080606577</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N11">
-        <v>9.26166080606577</v>
+        <v>113.146496</v>
       </c>
       <c r="O11">
-        <v>0.1674072397996707</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="P11">
-        <v>0.1674072397996707</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="Q11">
-        <v>15.71756298727546</v>
+        <v>14.47803705066667</v>
       </c>
       <c r="R11">
-        <v>15.71756298727546</v>
+        <v>130.302333456</v>
       </c>
       <c r="S11">
-        <v>0.02183853942917512</v>
+        <v>0.01827986029999989</v>
       </c>
       <c r="T11">
-        <v>0.02183853942917512</v>
+        <v>0.01827986029999989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>37.6145251967764</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N12">
-        <v>37.6145251967764</v>
+        <v>0.149489</v>
       </c>
       <c r="O12">
-        <v>0.6798935926743749</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="P12">
-        <v>0.6798935926743749</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="Q12">
-        <v>63.83397982245157</v>
+        <v>0.01912836329166667</v>
       </c>
       <c r="R12">
-        <v>63.83397982245157</v>
+        <v>0.172155269625</v>
       </c>
       <c r="S12">
-        <v>0.08869319540200715</v>
+        <v>2.415132711124068E-05</v>
       </c>
       <c r="T12">
-        <v>0.08869319540200715</v>
+        <v>2.415132711124068E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.44794942373087</v>
+        <v>9.888937</v>
       </c>
       <c r="N13">
-        <v>8.44794942373087</v>
+        <v>29.666811</v>
       </c>
       <c r="O13">
-        <v>0.1526991675259545</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="P13">
-        <v>0.1526991675259545</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="Q13">
-        <v>14.33664868117871</v>
+        <v>3.796115690875</v>
       </c>
       <c r="R13">
-        <v>14.33664868117871</v>
+        <v>34.16504121787501</v>
       </c>
       <c r="S13">
-        <v>0.01991984811892427</v>
+        <v>0.004792947018231128</v>
       </c>
       <c r="T13">
-        <v>0.01991984811892427</v>
+        <v>0.004792947018231129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.264687</v>
+      </c>
+      <c r="H14">
+        <v>6.794061</v>
+      </c>
+      <c r="I14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.269799333333333</v>
+      </c>
+      <c r="N14">
+        <v>27.809398</v>
+      </c>
+      <c r="O14">
+        <v>0.1628450003986012</v>
+      </c>
+      <c r="P14">
+        <v>0.1628450003986012</v>
+      </c>
+      <c r="Q14">
+        <v>20.99319404280866</v>
+      </c>
+      <c r="R14">
+        <v>188.938746385278</v>
+      </c>
+      <c r="S14">
+        <v>0.02650584834189674</v>
+      </c>
+      <c r="T14">
+        <v>0.02650584834189674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.264687</v>
+      </c>
+      <c r="H15">
+        <v>6.794061</v>
+      </c>
+      <c r="I15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>37.71549866666666</v>
+      </c>
+      <c r="N15">
+        <v>113.146496</v>
+      </c>
+      <c r="O15">
+        <v>0.6625580742963342</v>
+      </c>
+      <c r="P15">
+        <v>0.6625580742963342</v>
+      </c>
+      <c r="Q15">
+        <v>85.41379952891732</v>
+      </c>
+      <c r="R15">
+        <v>768.724195760256</v>
+      </c>
+      <c r="S15">
+        <v>0.1078428185821579</v>
+      </c>
+      <c r="T15">
+        <v>0.1078428185821579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.264687</v>
+      </c>
+      <c r="H16">
+        <v>6.794061</v>
+      </c>
+      <c r="I16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04982966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.149489</v>
+      </c>
+      <c r="O16">
+        <v>0.0008753708463802955</v>
+      </c>
+      <c r="P16">
+        <v>0.0008753708463802955</v>
+      </c>
+      <c r="Q16">
+        <v>0.1128485983143333</v>
+      </c>
+      <c r="R16">
+        <v>1.015637384829</v>
+      </c>
+      <c r="S16">
+        <v>0.0001424817884508611</v>
+      </c>
+      <c r="T16">
+        <v>0.0001424817884508611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.264687</v>
+      </c>
+      <c r="H17">
+        <v>6.794061</v>
+      </c>
+      <c r="I17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.888937</v>
+      </c>
+      <c r="N17">
+        <v>29.666811</v>
+      </c>
+      <c r="O17">
+        <v>0.1737215544586843</v>
+      </c>
+      <c r="P17">
+        <v>0.1737215544586843</v>
+      </c>
+      <c r="Q17">
+        <v>22.395347067719</v>
+      </c>
+      <c r="R17">
+        <v>201.558123609471</v>
+      </c>
+      <c r="S17">
+        <v>0.0282761961677025</v>
+      </c>
+      <c r="T17">
+        <v>0.02827619616770251</v>
       </c>
     </row>
   </sheetData>
